--- a/biology/Médecine/Santen_Pharmaceutical/Santen_Pharmaceutical.xlsx
+++ b/biology/Médecine/Santen_Pharmaceutical/Santen_Pharmaceutical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Santen Pharmaceutical est une entreprise pharmaceutique japonaise fondée en 1890 à Osaka et spécialisée dans l'ophtalmologie et la rhumatologie[2],[3].
-En septembre 2013, Santen Pharmaceutical fait l'acquisition de 50,55 % du capital de la société Novagali Pharma[4], laquelle change de nom en 2013 pour devenir Santen SAS[5].
-En 2014, Merck &amp; Co. vend ses activités dans l'ophtalmologie en Europe et en Asie à Santen Pharmaceutical pour 600 millions de dollars[6].
+Santen Pharmaceutical est une entreprise pharmaceutique japonaise fondée en 1890 à Osaka et spécialisée dans l'ophtalmologie et la rhumatologie,.
+En septembre 2013, Santen Pharmaceutical fait l'acquisition de 50,55 % du capital de la société Novagali Pharma, laquelle change de nom en 2013 pour devenir Santen SAS.
+En 2014, Merck &amp; Co. vend ses activités dans l'ophtalmologie en Europe et en Asie à Santen Pharmaceutical pour 600 millions de dollars.
 </t>
         </is>
       </c>
